--- a/timeline/CaldicRoadmap.xlsx
+++ b/timeline/CaldicRoadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnadorp/Documents/Prive/D3/timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956BF6D7-B7E7-0043-99E5-4079B28EF9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF4B179-947D-1F45-9405-6C4E7D68F63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{01056964-EFF9-CC4B-9F29-15A97D6DAB56}"/>
   </bookViews>
@@ -846,10 +846,10 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -985,7 +985,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="7">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>54</v>
@@ -1025,7 +1025,7 @@
       <c r="J4">
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <v>-20</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -1067,8 +1067,8 @@
       <c r="J5" s="9">
         <v>10</v>
       </c>
-      <c r="K5">
-        <v>20</v>
+      <c r="K5" s="7">
+        <v>-20</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>55</v>
@@ -1108,7 +1108,7 @@
       <c r="J6">
         <v>10</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="7">
         <v>-20</v>
       </c>
       <c r="L6" s="9" t="s">
@@ -1152,8 +1152,8 @@
       <c r="J7" s="6">
         <v>10</v>
       </c>
-      <c r="K7">
-        <v>20</v>
+      <c r="K7" s="7">
+        <v>-20</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>53</v>
@@ -1193,7 +1193,7 @@
       <c r="J8">
         <v>10</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="7">
         <v>-20</v>
       </c>
       <c r="L8" s="9" t="s">
@@ -1234,7 +1234,7 @@
       <c r="J9">
         <v>10</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="7">
         <v>-20</v>
       </c>
       <c r="L9" s="9" t="s">
@@ -1278,8 +1278,8 @@
       <c r="J10" s="6">
         <v>10</v>
       </c>
-      <c r="K10">
-        <v>20</v>
+      <c r="K10" s="7">
+        <v>-20</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>53</v>
@@ -1317,10 +1317,10 @@
         <v>41</v>
       </c>
       <c r="J11" s="6">
-        <v>30</v>
-      </c>
-      <c r="K11">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="K11" s="7">
+        <v>-10</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>53</v>
@@ -1360,7 +1360,7 @@
       <c r="J12" s="6">
         <v>10</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="7">
         <v>-20</v>
       </c>
       <c r="L12" s="9" t="s">
@@ -1399,10 +1399,10 @@
         <v>40</v>
       </c>
       <c r="J13" s="6">
-        <v>10</v>
-      </c>
-      <c r="K13">
-        <v>20</v>
+        <v>-10</v>
+      </c>
+      <c r="K13" s="7">
+        <v>-20</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>53</v>
@@ -1440,10 +1440,10 @@
         <v>37</v>
       </c>
       <c r="J14" s="6">
-        <v>10</v>
-      </c>
-      <c r="K14">
-        <v>-20</v>
+        <v>-30</v>
+      </c>
+      <c r="K14" s="7">
+        <v>-10</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>53</v>
@@ -1481,10 +1481,10 @@
         <v>38</v>
       </c>
       <c r="J15" s="6">
-        <v>10</v>
-      </c>
-      <c r="K15">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>-20</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>53</v>
@@ -1522,9 +1522,9 @@
         <v>39</v>
       </c>
       <c r="J16" s="6">
-        <v>10</v>
-      </c>
-      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
         <v>-20</v>
       </c>
       <c r="L16" s="9" t="s">
@@ -1534,7 +1534,7 @@
         <v>57</v>
       </c>
       <c r="N16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1568,8 +1568,8 @@
       <c r="J17" s="6">
         <v>10</v>
       </c>
-      <c r="K17">
-        <v>20</v>
+      <c r="K17" s="7">
+        <v>-20</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>53</v>
@@ -1609,7 +1609,7 @@
       <c r="J18" s="6">
         <v>10</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="7">
         <v>-20</v>
       </c>
       <c r="L18" s="9" t="s">
@@ -1653,8 +1653,8 @@
       <c r="J19" s="6">
         <v>10</v>
       </c>
-      <c r="K19">
-        <v>20</v>
+      <c r="K19" s="7">
+        <v>-20</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>53</v>
@@ -1692,10 +1692,10 @@
         <v>46</v>
       </c>
       <c r="J20" s="6">
-        <v>10</v>
-      </c>
-      <c r="K20">
-        <v>-20</v>
+        <v>60</v>
+      </c>
+      <c r="K20" s="7">
+        <v>-10</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>53</v>

--- a/timeline/CaldicRoadmap.xlsx
+++ b/timeline/CaldicRoadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnadorp/Documents/Prive/D3/timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF4B179-947D-1F45-9405-6C4E7D68F63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2529B653-54B3-0043-AE93-7EBB28DC5566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{01056964-EFF9-CC4B-9F29-15A97D6DAB56}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="70">
   <si>
     <t>Service</t>
   </si>
@@ -111,36 +111,12 @@
     <t>AnnLabel</t>
   </si>
   <si>
-    <t>MDM - Business</t>
-  </si>
-  <si>
     <t>MDM - GDP</t>
   </si>
   <si>
-    <t xml:space="preserve">OneStream - Business </t>
-  </si>
-  <si>
-    <t>OneStream - GDP</t>
-  </si>
-  <si>
-    <t>Project Start</t>
-  </si>
-  <si>
     <t>GDP Project Start</t>
   </si>
   <si>
-    <t>OneStream - Financial Statements</t>
-  </si>
-  <si>
-    <t>OneStream - Additional Reporting</t>
-  </si>
-  <si>
-    <t>OneStream - Exchange Rates</t>
-  </si>
-  <si>
-    <t>OneStream - GDP Dataflow</t>
-  </si>
-  <si>
     <t>GDP Deadline - Migration</t>
   </si>
   <si>
@@ -201,9 +177,6 @@
     <t>elbow</t>
   </si>
   <si>
-    <t>circle</t>
-  </si>
-  <si>
     <t>threshold</t>
   </si>
   <si>
@@ -223,6 +196,57 @@
   </si>
   <si>
     <t>horizontal</t>
+  </si>
+  <si>
+    <t>Sales Order Snapshot</t>
+  </si>
+  <si>
+    <t>Business Deadline</t>
+  </si>
+  <si>
+    <t>Sales Order Snapshot for North America</t>
+  </si>
+  <si>
+    <t>Predictive Pricing Tool</t>
+  </si>
+  <si>
+    <t>Business Project Start</t>
+  </si>
+  <si>
+    <t>Migrate DWHs to GDP</t>
+  </si>
+  <si>
+    <t>Development End</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Financial Statements</t>
+  </si>
+  <si>
+    <t>Additional Reporting</t>
+  </si>
+  <si>
+    <t>Exchange Rates</t>
+  </si>
+  <si>
+    <t>GDP Dataflow</t>
+  </si>
+  <si>
+    <t>Business Project End</t>
+  </si>
+  <si>
+    <t>OneStream Start</t>
+  </si>
+  <si>
+    <t>OneStream End</t>
+  </si>
+  <si>
+    <t>UAT End</t>
+  </si>
+  <si>
+    <t>SIT End</t>
   </si>
 </sst>
 </file>
@@ -378,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -389,10 +413,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -505,13 +525,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{528B89B5-E0DC-4A4B-9AAA-10B7ADF9571D}" name="Table1" displayName="Table1" ref="A1:N20" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A1:N20" xr:uid="{528B89B5-E0DC-4A4B-9AAA-10B7ADF9571D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L16">
-    <sortCondition ref="B2:B16"/>
-    <sortCondition ref="C2:C16"/>
-    <sortCondition ref="D2:D16"/>
-    <sortCondition ref="E2:E16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{528B89B5-E0DC-4A4B-9AAA-10B7ADF9571D}" name="Table1" displayName="Table1" ref="A1:N29" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:N29" xr:uid="{528B89B5-E0DC-4A4B-9AAA-10B7ADF9571D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L19">
+    <sortCondition ref="B2:B19"/>
+    <sortCondition ref="C2:C19"/>
+    <sortCondition ref="D2:D19"/>
+    <sortCondition ref="E2:E19"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{A4028886-D99E-3540-A7F4-4D50DF04691D}" name="Id"/>
@@ -843,20 +863,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B71B893-BE33-8E4F-A8AE-9C95E0806B93}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="5" width="8.33203125" style="14" customWidth="1"/>
+    <col min="3" max="5" width="8.33203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
     <col min="8" max="9" width="28.83203125" customWidth="1"/>
@@ -866,19 +886,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -891,7 +911,7 @@
         <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>20</v>
@@ -903,10 +923,10 @@
         <v>22</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -917,41 +937,41 @@
         <f>IF(B1="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F1,B1,B1+1))</f>
         <v>1</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>2023</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <v>5</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="J2" s="6">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K2" s="7">
         <v>-20</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>53</v>
+      <c r="L2" t="s">
+        <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -962,39 +982,39 @@
         <f>IF(B2="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F2,B2,B2+1))</f>
         <v>1</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>2024</v>
       </c>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
         <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6">
-        <v>10</v>
+        <v>-50</v>
       </c>
       <c r="K3" s="7">
         <v>-20</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>54</v>
+      <c r="L3" t="s">
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1004,96 +1024,95 @@
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>2024</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>3</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="K4" s="7">
-        <v>-20</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>53</v>
+        <v>-60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
         <v>2024</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>5</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5">
         <v>10</v>
       </c>
       <c r="K5" s="7">
         <v>-20</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>55</v>
+      <c r="L5" t="s">
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
         <v>2024</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>12</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>31</v>
       </c>
       <c r="F6" t="s">
@@ -1103,7 +1122,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J6">
         <v>10</v>
@@ -1111,30 +1130,30 @@
       <c r="K6" s="7">
         <v>-20</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>53</v>
+      <c r="L6" t="s">
+        <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>2024</v>
       </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" t="s">
@@ -1144,41 +1163,41 @@
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J7" s="6">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="K7" s="7">
         <v>-20</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>53</v>
+      <c r="L7" t="s">
+        <v>45</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>2024</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>4</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" t="s">
@@ -1188,39 +1207,40 @@
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="K8" s="7">
-        <v>-20</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>53</v>
+        <v>-40</v>
+      </c>
+      <c r="L8" t="s">
+        <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="4">
+        <f>IF(B8="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F8,B8,B8+1))</f>
         <v>2</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>2024</v>
       </c>
-      <c r="D9" s="13">
-        <v>12</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1</v>
+      <c r="D9" s="11">
+        <v>6</v>
+      </c>
+      <c r="E9" s="11">
+        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -1229,174 +1249,170 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="K9" s="7">
         <v>-20</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>53</v>
+      <c r="L9" t="s">
+        <v>45</v>
       </c>
       <c r="M9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="4">
+        <f>IF(B9="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F9,B9,B9+1))</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="11">
         <v>2024</v>
       </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13">
-        <v>1</v>
+      <c r="D10" s="11">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11">
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="6">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
       <c r="K10" s="7">
-        <v>-20</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>53</v>
+        <v>-45</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
       </c>
       <c r="M10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8">
-        <v>3</v>
-      </c>
-      <c r="C11" s="13">
-        <v>2025</v>
-      </c>
-      <c r="D11" s="13">
-        <v>6</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="B11" s="4">
+        <f>IF(B9="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F9,B9,B9+1))</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D11" s="11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11">
         <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="6">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
       </c>
       <c r="K11" s="7">
-        <v>-10</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>53</v>
+        <v>-20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>45</v>
       </c>
       <c r="M11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" s="8">
-        <v>3</v>
-      </c>
-      <c r="C12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11">
         <v>2024</v>
       </c>
-      <c r="D12" s="13">
-        <v>4</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D12" s="11">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="6">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <v>80</v>
       </c>
       <c r="K12" s="7">
         <v>-20</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>53</v>
+      <c r="L12" t="s">
+        <v>45</v>
       </c>
       <c r="M12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>2024</v>
       </c>
-      <c r="D13" s="13">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13">
-        <v>31</v>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
       </c>
       <c r="J13" s="6">
         <v>-10</v>
@@ -1404,307 +1420,652 @@
       <c r="K13" s="7">
         <v>-20</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>53</v>
+      <c r="L13" t="s">
+        <v>45</v>
       </c>
       <c r="M13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N13" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="4">
         <v>3</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>2025</v>
       </c>
-      <c r="D14" s="13">
-        <v>2</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1</v>
+      <c r="D14" s="11">
+        <v>6</v>
+      </c>
+      <c r="E14" s="11">
+        <v>31</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="J14" s="6">
-        <v>-30</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7">
         <v>-10</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>53</v>
+      <c r="L14" t="s">
+        <v>45</v>
       </c>
       <c r="M14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="4">
         <v>3</v>
       </c>
-      <c r="C15" s="13">
-        <v>2025</v>
-      </c>
-      <c r="D15" s="13">
-        <v>3</v>
-      </c>
-      <c r="E15" s="13">
+      <c r="C15" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D15" s="11">
+        <v>4</v>
+      </c>
+      <c r="E15" s="11">
         <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J15" s="6">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="K15" s="7">
-        <v>-20</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>53</v>
+        <v>-40</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
       </c>
       <c r="M15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N15" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4">
         <v>3</v>
       </c>
-      <c r="C16" s="13">
-        <v>2025</v>
-      </c>
-      <c r="D16" s="13">
-        <v>6</v>
-      </c>
-      <c r="E16" s="13">
-        <v>1</v>
+      <c r="C16" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D16" s="11">
+        <v>10</v>
+      </c>
+      <c r="E16" s="11">
+        <v>31</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J16" s="6">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="K16" s="7">
         <v>-20</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>53</v>
+      <c r="L16" t="s">
+        <v>45</v>
       </c>
       <c r="M16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
-      <c r="B17" s="8">
-        <v>4</v>
-      </c>
-      <c r="C17" s="13">
-        <v>2024</v>
-      </c>
-      <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>42</v>
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2025</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
       </c>
-      <c r="I17" t="s">
-        <v>51</v>
-      </c>
       <c r="J17" s="6">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="K17" s="7">
         <v>-20</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>53</v>
+      <c r="L17" t="s">
+        <v>45</v>
       </c>
       <c r="M17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
-      <c r="B18" s="8">
-        <v>4</v>
-      </c>
-      <c r="C18" s="13">
-        <v>2024</v>
-      </c>
-      <c r="D18" s="13">
-        <v>12</v>
-      </c>
-      <c r="E18" s="13">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>42</v>
+      <c r="B18" s="4">
+        <v>3</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2025</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="J18" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K18" s="7">
         <v>-20</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>53</v>
+      <c r="L18" t="s">
+        <v>45</v>
       </c>
       <c r="M18" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N18" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" s="8">
-        <v>5</v>
-      </c>
-      <c r="C19" s="13">
-        <v>2024</v>
-      </c>
-      <c r="D19" s="13">
-        <v>1</v>
-      </c>
-      <c r="E19" s="13">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>43</v>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="11">
+        <v>2025</v>
+      </c>
+      <c r="D19" s="11">
+        <v>6</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="J19" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K19" s="7">
         <v>-20</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>53</v>
+      <c r="L19" t="s">
+        <v>45</v>
       </c>
       <c r="M19" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="6">
+        <v>-10</v>
+      </c>
+      <c r="K20" s="7">
+        <v>-20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>5</v>
       </c>
-      <c r="C20" s="13">
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="11">
         <v>2024</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="11">
         <v>12</v>
       </c>
-      <c r="E20" s="13">
-        <v>1</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="6">
+        <v>10</v>
+      </c>
+      <c r="K21" s="7">
+        <v>-20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="6">
+        <v>-10</v>
+      </c>
+      <c r="K22" s="7">
+        <v>-20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4">
+        <v>5</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D23" s="11">
+        <v>12</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="6">
         <v>60</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K23" s="7">
+        <v>-20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="4">
+        <v>6</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D24" s="11">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="6">
+        <v>-20</v>
+      </c>
+      <c r="K24" s="7">
         <v>-10</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="4">
+        <v>6</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D25" s="11">
+        <v>6</v>
+      </c>
+      <c r="E25" s="11">
+        <v>31</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="M20" t="s">
-        <v>57</v>
-      </c>
-      <c r="N20" t="s">
-        <v>60</v>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="6">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7">
+        <v>-10</v>
+      </c>
+      <c r="L25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="4">
+        <f>IF(B25="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F25,B25,B25+1))</f>
+        <v>7</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D26" s="11">
+        <v>5</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="6">
+        <v>-20</v>
+      </c>
+      <c r="K26" s="7">
+        <v>-20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="4">
+        <v>7</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D27" s="11">
+        <v>9</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="6">
+        <v>10</v>
+      </c>
+      <c r="K27" s="7">
+        <v>-20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="4">
+        <f>IF(B27="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F27,B27,B27+1))</f>
+        <v>8</v>
+      </c>
+      <c r="C28" s="11">
+        <v>2025</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="6">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7">
+        <v>-20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="4">
+        <f>IF(B28="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F28,B28,B28+1))</f>
+        <v>8</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2026</v>
+      </c>
+      <c r="D29" s="11">
+        <v>12</v>
+      </c>
+      <c r="E29" s="11">
+        <v>31</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="6">
+        <v>10</v>
+      </c>
+      <c r="K29" s="7">
+        <v>-20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/timeline/CaldicRoadmap.xlsx
+++ b/timeline/CaldicRoadmap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnadorp/Documents/Prive/D3/timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2529B653-54B3-0043-AE93-7EBB28DC5566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97314B15-BC68-D442-B90C-4475CF74A631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{01056964-EFF9-CC4B-9F29-15A97D6DAB56}"/>
+    <workbookView xWindow="-25600" yWindow="1240" windowWidth="25600" windowHeight="21100" xr2:uid="{01056964-EFF9-CC4B-9F29-15A97D6DAB56}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLine" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="82">
   <si>
     <t>Service</t>
   </si>
@@ -247,6 +247,52 @@
   </si>
   <si>
     <t>SIT End</t>
+  </si>
+  <si>
+    <t>Digital/PIM</t>
+  </si>
+  <si>
+    <t>Digital: Customer/Product/OrderHistory</t>
+  </si>
+  <si>
+    <t>RFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1  Shortlisted vendors submit questions for Q&amp;A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2  Caldic provides question responses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3  Vendors submit proposal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4  Vendors pitch proposal (Demo) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Caldic communicates selection for final round </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1  Selected vendor submit final proposal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2  Final pitch, discussion and questions </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t xml:space="preserve">Target date to start project ramp-up and get foundations in place </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Caldic shares RFP with shortlisted vendors </t>
   </si>
 </sst>
 </file>
@@ -257,7 +303,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -286,6 +332,11 @@
       <color rgb="FFD4D4D4"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
     </font>
   </fonts>
   <fills count="4">
@@ -402,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -430,6 +481,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -525,8 +579,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{528B89B5-E0DC-4A4B-9AAA-10B7ADF9571D}" name="Table1" displayName="Table1" ref="A1:N29" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A1:N29" xr:uid="{528B89B5-E0DC-4A4B-9AAA-10B7ADF9571D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{528B89B5-E0DC-4A4B-9AAA-10B7ADF9571D}" name="Table1" displayName="Table1" ref="A1:N40" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:N40" xr:uid="{528B89B5-E0DC-4A4B-9AAA-10B7ADF9571D}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="RFP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L19">
     <sortCondition ref="B2:B19"/>
     <sortCondition ref="C2:C19"/>
@@ -863,16 +923,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B71B893-BE33-8E4F-A8AE-9C95E0806B93}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34:K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
@@ -885,7 +945,7 @@
     <col min="14" max="14" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="93" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
@@ -929,7 +989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="102" hidden="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -974,7 +1034,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" hidden="1">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1017,7 +1077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" hidden="1">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1058,7 +1118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" hidden="1">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1069,10 +1129,10 @@
         <v>2024</v>
       </c>
       <c r="D5" s="11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E5" s="11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -1099,7 +1159,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" hidden="1">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1140,7 +1200,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" hidden="1">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1184,7 +1244,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" hidden="1">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1225,7 +1285,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" hidden="1">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1267,7 +1327,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" hidden="1">
       <c r="B10" s="4">
         <f>IF(B9="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F9,B9,B9+1))</f>
         <v>2</v>
@@ -1306,7 +1366,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" hidden="1">
       <c r="B11" s="4">
         <f>IF(B9="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F9,B9,B9+1))</f>
         <v>2</v>
@@ -1345,7 +1405,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" hidden="1">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1386,7 +1446,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" hidden="1">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1430,7 +1490,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1471,7 +1531,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" hidden="1">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1512,7 +1572,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" hidden="1">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1553,7 +1613,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" hidden="1">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1594,7 +1654,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" hidden="1">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1635,7 +1695,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" hidden="1">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1676,7 +1736,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" hidden="1">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1720,7 +1780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" hidden="1">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1761,7 +1821,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" hidden="1">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1805,7 +1865,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" hidden="1">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1846,7 +1906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" hidden="1">
       <c r="B24" s="4">
         <v>6</v>
       </c>
@@ -1884,7 +1944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" hidden="1">
       <c r="B25" s="4">
         <v>6</v>
       </c>
@@ -1922,7 +1982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" hidden="1">
       <c r="B26" s="4">
         <f>IF(B25="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F25,B25,B25+1))</f>
         <v>7</v>
@@ -1958,7 +2018,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" hidden="1">
       <c r="B27" s="4">
         <v>7</v>
       </c>
@@ -1996,7 +2056,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" hidden="1">
       <c r="B28" s="4">
         <f>IF(B27="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F27,B27,B27+1))</f>
         <v>8</v>
@@ -2032,7 +2092,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" hidden="1">
       <c r="B29" s="4">
         <f>IF(B28="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F28,B28,B28+1))</f>
         <v>8</v>
@@ -2065,6 +2125,406 @@
         <v>48</v>
       </c>
       <c r="N29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" hidden="1">
+      <c r="B30" s="4">
+        <f>IF(B29="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F29,B29,B29+1))</f>
+        <v>9</v>
+      </c>
+      <c r="C30" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D30" s="11">
+        <v>6</v>
+      </c>
+      <c r="E30" s="11">
+        <v>12</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="6">
+        <v>10</v>
+      </c>
+      <c r="K30" s="7">
+        <v>-20</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" hidden="1">
+      <c r="B31" s="4">
+        <f>IF(B30="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F30,B30,B30+1))</f>
+        <v>9</v>
+      </c>
+      <c r="C31" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D31" s="11">
+        <v>9</v>
+      </c>
+      <c r="E31" s="11">
+        <v>31</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="6">
+        <v>10</v>
+      </c>
+      <c r="K31" s="7">
+        <v>-20</v>
+      </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="14">
+        <v>10</v>
+      </c>
+      <c r="C32" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D32" s="11">
+        <v>8</v>
+      </c>
+      <c r="E32" s="11">
+        <v>7</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>-20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" t="s">
+        <v>48</v>
+      </c>
+      <c r="N32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="14">
+        <v>10</v>
+      </c>
+      <c r="C33" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D33" s="11">
+        <v>8</v>
+      </c>
+      <c r="E33" s="11">
+        <v>16</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>10</v>
+      </c>
+      <c r="L33" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" t="s">
+        <v>48</v>
+      </c>
+      <c r="N33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="14">
+        <v>10</v>
+      </c>
+      <c r="C34" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D34" s="11">
+        <v>8</v>
+      </c>
+      <c r="E34" s="11">
+        <v>26</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <f>K33+30</f>
+        <v>40</v>
+      </c>
+      <c r="L34" t="s">
+        <v>45</v>
+      </c>
+      <c r="M34" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="14">
+        <v>10</v>
+      </c>
+      <c r="C35" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D35" s="11">
+        <v>9</v>
+      </c>
+      <c r="E35" s="11">
+        <v>4</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <f t="shared" ref="K35:K40" si="0">K34+30</f>
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" t="s">
+        <v>48</v>
+      </c>
+      <c r="N35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="14">
+        <v>10</v>
+      </c>
+      <c r="C36" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D36" s="11">
+        <v>9</v>
+      </c>
+      <c r="E36" s="11">
+        <v>16</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L36" t="s">
+        <v>45</v>
+      </c>
+      <c r="M36" t="s">
+        <v>48</v>
+      </c>
+      <c r="N36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="14">
+        <v>10</v>
+      </c>
+      <c r="C37" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D37" s="11">
+        <v>9</v>
+      </c>
+      <c r="E37" s="11">
+        <v>30</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="L37" t="s">
+        <v>45</v>
+      </c>
+      <c r="M37" t="s">
+        <v>48</v>
+      </c>
+      <c r="N37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="14">
+        <v>10</v>
+      </c>
+      <c r="C38" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D38" s="11">
+        <v>10</v>
+      </c>
+      <c r="E38" s="11">
+        <v>4</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="L38" t="s">
+        <v>45</v>
+      </c>
+      <c r="M38" t="s">
+        <v>48</v>
+      </c>
+      <c r="N38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="14">
+        <v>10</v>
+      </c>
+      <c r="C39" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D39" s="11">
+        <v>10</v>
+      </c>
+      <c r="E39" s="11">
+        <v>31</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="L39" t="s">
+        <v>45</v>
+      </c>
+      <c r="M39" t="s">
+        <v>48</v>
+      </c>
+      <c r="N39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="14">
+        <v>10</v>
+      </c>
+      <c r="C40" s="11">
+        <v>2024</v>
+      </c>
+      <c r="D40" s="11">
+        <v>10</v>
+      </c>
+      <c r="E40" s="11">
+        <v>31</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="L40" t="s">
+        <v>45</v>
+      </c>
+      <c r="M40" t="s">
+        <v>48</v>
+      </c>
+      <c r="N40" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2085,12 +2545,12 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2098,7 +2558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2106,7 +2566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2114,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2122,7 +2582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2130,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2138,7 +2598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2146,7 +2606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
